--- a/游戏开发文档/关卡设计表格示意图.xlsx
+++ b/游戏开发文档/关卡设计表格示意图.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Klin\Desktop\workspace\game_design\project2_Demo\Time_Guardian\Time Guardian\游戏开发文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f1114f2e9e71934/Desktop/workspace/game_design/project2_Demo/Time_Guardian/Time Guardian/游戏开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A502320-ABB6-4CC0-82EB-9276614D0938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{2A502320-ABB6-4CC0-82EB-9276614D0938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C85469A-4CB9-46DB-9D27-6524F1C9D1B8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="电子表关卡" sheetId="2" r:id="rId1"/>
-    <sheet name="机械时钟关卡" sheetId="3" r:id="rId2"/>
-    <sheet name="沙漏关卡" sheetId="4" r:id="rId3"/>
+    <sheet name="机械时钟关卡" sheetId="3" r:id="rId1"/>
+    <sheet name="沙漏关卡" sheetId="4" r:id="rId2"/>
+    <sheet name="日晷关卡" sheetId="5" r:id="rId3"/>
+    <sheet name="电子表关卡" sheetId="2" r:id="rId4"/>
+    <sheet name="光影关卡" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -27,13 +29,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>关卡总格子数：29*13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御塔格子：7*15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -41,7 +39,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御塔格子：7*7</t>
+    <t>防御塔格子：7*7 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔格子：7*15 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物出口数：24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物出口数：40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡总格子数：13*17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔格子：7*9 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物出口数：28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -189,13 +211,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -478,6 +498,350 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7471</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4855DC-FB21-56F7-018A-8A7456ABC417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="702235" y="706204"/>
+          <a:ext cx="3167530" cy="4575502"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>328706</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7471</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C7A70F3-2D00-4BB4-8118-8C96D6ABE2D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="679824" y="702235"/>
+          <a:ext cx="3189941" cy="4586941"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DB6D74-6F04-444E-A85C-9C7A33A5F4D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="687294" y="5266765"/>
+          <a:ext cx="3175000" cy="14941"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2988</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40342</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE3F538-0AA5-400B-B5AD-0B52B810AE4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="705223" y="727636"/>
+          <a:ext cx="3175000" cy="14941"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7ECA65-A642-D08B-2334-5614E75E9B3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:alphaModFix amt="70000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4552950" cy="4552950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5522</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11044</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31EC0BBD-C997-4C1B-B26D-895E3EAE4B59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2101022" y="354771"/>
+          <a:ext cx="343729" cy="1751773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -653,16 +1017,2697 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FFFA34-73F8-4851-A86B-020BE5E58843}">
+  <dimension ref="A1:AD92"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="19" width="4.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+    </row>
+    <row r="2" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+    </row>
+    <row r="3" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+    </row>
+    <row r="4" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+    </row>
+    <row r="5" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+    </row>
+    <row r="6" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+    </row>
+    <row r="7" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+    </row>
+    <row r="8" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+    </row>
+    <row r="9" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+    </row>
+    <row r="10" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+    </row>
+    <row r="11" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+    </row>
+    <row r="12" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+    </row>
+    <row r="13" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+    </row>
+    <row r="14" spans="1:30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+    </row>
+    <row r="15" spans="1:30" ht="25.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+    </row>
+    <row r="16" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F12EDC8-A095-4B23-BBCA-6A788BB984E4}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.58203125" defaultRowHeight="27.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1393C27E-0F37-4C3B-AFEA-41EE87B8E11C}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.58203125" defaultRowHeight="27.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AD27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="1"/>
       <c r="C1" s="8"/>
@@ -693,7 +3738,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="7"/>
     </row>
-    <row r="2" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -724,7 +3769,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -755,7 +3800,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
@@ -786,7 +3831,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -817,7 +3862,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="7"/>
     </row>
-    <row r="6" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
@@ -848,7 +3893,7 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -879,7 +3924,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="7"/>
     </row>
-    <row r="8" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
@@ -910,7 +3955,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -941,7 +3986,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="7"/>
     </row>
-    <row r="10" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
@@ -972,7 +4017,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1004,7 +4049,7 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="6"/>
     </row>
-    <row r="12" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1035,7 +4080,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="11"/>
@@ -1066,7 +4111,7 @@
       <c r="AB13" s="14"/>
       <c r="AC13" s="13"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1096,10 +4141,8 @@
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1131,12 +4174,10 @@
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:30" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1166,11 +4207,11 @@
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+    </row>
+    <row r="17" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1199,10 +4240,8 @@
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1232,10 +4271,8 @@
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1264,9 +4301,9 @@
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
-      <c r="AC19" s="16"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AC19" s="10"/>
+    </row>
+    <row r="20" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1295,132 +4332,135 @@
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
-      <c r="AC20" s="16"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-    </row>
+      <c r="AC20" s="10"/>
+    </row>
+    <row r="21" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+    </row>
+    <row r="22" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+    </row>
+    <row r="23" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+    </row>
+    <row r="24" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+    </row>
+    <row r="25" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1428,293 +4468,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FFFA34-73F8-4851-A86B-020BE5E58843}">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="19" width="4.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:15" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:15" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-    </row>
-    <row r="7" spans="1:15" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="1:15" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="1:15" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="1:15" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="1:15" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="1:15" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="1:15" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="1:15" ht="25.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F12EDC8-A095-4B23-BBCA-6A788BB984E4}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D0B331-E965-4D01-A557-618645763722}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/游戏开发文档/关卡设计表格示意图.xlsx
+++ b/游戏开发文档/关卡设计表格示意图.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{2A502320-ABB6-4CC0-82EB-9276614D0938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C85469A-4CB9-46DB-9D27-6524F1C9D1B8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3020" yWindow="1750" windowWidth="19200" windowHeight="11170" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="机械时钟关卡" sheetId="3" r:id="rId1"/>
@@ -842,6 +842,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1020,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FFFA34-73F8-4851-A86B-020BE5E58843}">
   <dimension ref="A1:AD92"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -3187,7 +3191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F12EDC8-A095-4B23-BBCA-6A788BB984E4}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -3701,8 +3705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
